--- a/output/endemo2_industry_coef_current_settings.xlsx
+++ b/output/endemo2_industry_coef_current_settings.xlsx
@@ -531,7 +531,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -575,7 +575,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -663,7 +663,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -707,7 +707,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -751,7 +751,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -795,7 +795,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -839,7 +839,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -883,7 +883,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -971,7 +971,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1675,7 +1675,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -1763,7 +1763,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -2284,7 +2284,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -2416,7 +2416,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -2812,7 +2812,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2988,7 +2988,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -3032,7 +3032,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -3296,7 +3296,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3472,7 +3472,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3560,7 +3560,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -3729,7 +3729,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -3773,7 +3773,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -3905,7 +3905,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -3993,7 +3993,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -4037,7 +4037,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -4081,7 +4081,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -4257,7 +4257,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -4521,7 +4521,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -4653,7 +4653,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -4741,7 +4741,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -4829,7 +4829,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -4961,7 +4961,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -5093,7 +5093,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -5394,7 +5394,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -5614,7 +5614,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -5790,7 +5790,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -5878,7 +5878,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -5922,7 +5922,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -6010,7 +6010,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -6186,7 +6186,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -6230,7 +6230,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -6406,7 +6406,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -6450,7 +6450,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -6494,7 +6494,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -6538,7 +6538,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -6714,7 +6714,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -7983,7 +7983,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -8071,7 +8071,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -8159,7 +8159,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -10037,7 +10037,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -10081,7 +10081,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -10125,7 +10125,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -10169,7 +10169,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -10213,7 +10213,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -10257,7 +10257,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -10301,7 +10301,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -10477,7 +10477,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -10565,7 +10565,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -10609,7 +10609,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -10653,7 +10653,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -10697,7 +10697,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -10741,7 +10741,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -10873,7 +10873,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -10961,7 +10961,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -11005,7 +11005,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -11049,7 +11049,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -11093,7 +11093,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -11137,7 +11137,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -11269,7 +11269,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -11357,7 +11357,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -11401,7 +11401,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -11702,7 +11702,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -11790,7 +11790,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -12054,7 +12054,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -12186,7 +12186,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -12802,7 +12802,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -12890,7 +12890,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -12934,7 +12934,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -12978,7 +12978,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -13022,7 +13022,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -13147,7 +13147,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -13191,7 +13191,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -13279,7 +13279,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -13367,7 +13367,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -13587,7 +13587,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -13631,7 +13631,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -13675,7 +13675,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -13719,7 +13719,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -13807,7 +13807,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -13851,7 +13851,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -13895,7 +13895,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -14071,7 +14071,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -14247,7 +14247,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -14335,7 +14335,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -14379,7 +14379,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -14423,7 +14423,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -14555,7 +14555,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -14599,7 +14599,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -14724,7 +14724,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -14768,7 +14768,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -14812,7 +14812,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -14856,7 +14856,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -14944,7 +14944,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -14988,7 +14988,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -15076,7 +15076,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -15120,7 +15120,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -15164,7 +15164,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -15252,7 +15252,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -15296,7 +15296,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -15340,7 +15340,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -15384,7 +15384,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -15428,7 +15428,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -15472,7 +15472,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -15516,7 +15516,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -15560,7 +15560,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -15604,7 +15604,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -15648,7 +15648,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -15692,7 +15692,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -15736,7 +15736,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -15824,7 +15824,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -15912,7 +15912,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -15956,7 +15956,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -16000,7 +16000,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -16044,7 +16044,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -16088,7 +16088,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -16132,7 +16132,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -16176,7 +16176,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -16301,7 +16301,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -16345,7 +16345,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -16389,7 +16389,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -16433,7 +16433,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -16477,7 +16477,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -16521,7 +16521,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -16565,7 +16565,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -16609,7 +16609,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -16653,7 +16653,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -16697,7 +16697,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -16741,7 +16741,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -16785,7 +16785,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -16829,7 +16829,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -16873,7 +16873,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -16917,7 +16917,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -16961,7 +16961,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -17005,7 +17005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -17049,7 +17049,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -17093,7 +17093,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -17137,7 +17137,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -17225,7 +17225,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -17269,7 +17269,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -17313,7 +17313,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -17357,7 +17357,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -17401,7 +17401,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -17445,7 +17445,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -17489,7 +17489,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -17533,7 +17533,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -17577,7 +17577,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -17621,7 +17621,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -17665,7 +17665,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -17753,7 +17753,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -17878,7 +17878,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -17922,7 +17922,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -17966,7 +17966,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -18010,7 +18010,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -18054,7 +18054,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -18098,7 +18098,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -18142,7 +18142,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -18186,7 +18186,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -18230,7 +18230,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -18274,7 +18274,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -18318,7 +18318,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -18362,7 +18362,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -18406,7 +18406,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -18450,7 +18450,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -18494,7 +18494,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -18538,7 +18538,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -18582,7 +18582,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -18626,7 +18626,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -18670,7 +18670,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -18714,7 +18714,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -18758,7 +18758,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -18802,7 +18802,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -18846,7 +18846,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -18890,7 +18890,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -18934,7 +18934,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -18978,7 +18978,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -19022,7 +19022,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -19066,7 +19066,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -19110,7 +19110,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -19154,7 +19154,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -19198,7 +19198,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -19242,7 +19242,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -19330,7 +19330,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -19499,7 +19499,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -19587,7 +19587,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -19851,7 +19851,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -19939,7 +19939,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -19983,7 +19983,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -20599,7 +20599,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -20643,7 +20643,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -20687,7 +20687,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -20731,7 +20731,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -20775,7 +20775,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -20819,7 +20819,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -20863,7 +20863,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -20907,7 +20907,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -21032,7 +21032,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -21076,7 +21076,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -21120,7 +21120,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -21164,7 +21164,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -21252,7 +21252,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -21296,7 +21296,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -21340,7 +21340,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -21384,7 +21384,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -21428,7 +21428,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -21472,7 +21472,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -21516,7 +21516,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -21560,7 +21560,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -21604,7 +21604,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -21648,7 +21648,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -21692,7 +21692,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -21736,7 +21736,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -21780,7 +21780,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -21824,7 +21824,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -21868,7 +21868,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -21912,7 +21912,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -21956,7 +21956,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -22000,7 +22000,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -22044,7 +22044,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -22088,7 +22088,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -22132,7 +22132,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -22176,7 +22176,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -22220,7 +22220,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -22264,7 +22264,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -22308,7 +22308,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -22352,7 +22352,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -22396,7 +22396,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -22440,7 +22440,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -22484,7 +22484,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -22609,7 +22609,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -22653,7 +22653,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -22697,7 +22697,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -22741,7 +22741,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -22785,7 +22785,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -22829,7 +22829,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -22873,7 +22873,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -22917,7 +22917,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -22961,7 +22961,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -23005,7 +23005,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -23049,7 +23049,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -23093,7 +23093,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -23137,7 +23137,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -23181,7 +23181,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -23225,7 +23225,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -23269,7 +23269,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -23313,7 +23313,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -23357,7 +23357,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -23401,7 +23401,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -23445,7 +23445,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -23489,7 +23489,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -23533,7 +23533,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -23577,7 +23577,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -23621,7 +23621,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G25" t="n">
@@ -23665,7 +23665,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -23709,7 +23709,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -23753,7 +23753,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -23797,7 +23797,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -23841,7 +23841,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -23885,7 +23885,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -23929,7 +23929,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -23973,7 +23973,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -24017,7 +24017,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -24061,7 +24061,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>(0, 0)</t>
+          <t>(nan, nan)</t>
         </is>
       </c>
       <c r="G35" t="n">

--- a/output/endemo2_industry_coef_current_settings.xlsx
+++ b/output/endemo2_industry_coef_current_settings.xlsx
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.8905124e-05</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.8905124e-05</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -2802,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.2243249e-05</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -2817,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.2243249e-05</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4.0591645e-05</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -2935,7 +2935,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4.0591645e-05</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.1623731e-05</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -3112,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.1623731e-05</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.6508475e-05</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.6508475e-05</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3.864984e-06</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -3230,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>3.864984e-06</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.5751742e-05</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.5751742e-05</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>4.8239712e-05</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>4.8239712e-05</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -3510,7 +3510,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.000135058593</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -3525,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.000135058593</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -3628,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.45559e-05</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.45559e-05</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.963211e-05</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2.963211e-05</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2.190102e-06</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.190102e-06</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.2655178e-05</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2.2655178e-05</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.027208e-06</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.027208e-06</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -4041,7 +4041,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.007537e-06</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.007537e-06</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.294e-09</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2.294e-09</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.281603e-05</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4811,7 +4811,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.281603e-05</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -4855,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.5389852e-05</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -4870,7 +4870,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.5389852e-05</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.8850044e-05</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.8850044e-05</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.8585e-08</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>3.8585e-08</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.119869e-05</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>3.119869e-05</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.932018e-06</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>4.932018e-06</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -5209,7 +5209,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>8.95382e-06</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -5224,7 +5224,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>8.95382e-06</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -5268,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.1734377e-05</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.1734377e-05</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>7.930698e-05</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5342,7 +5342,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>7.930698e-05</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>5.042311e-06</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -5401,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>5.042311e-06</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -5563,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3.0679957e-05</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>3.0679957e-05</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.000104766381</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -5637,7 +5637,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.000104766381</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -5681,7 +5681,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>4.533982e-05</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -5696,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>4.533982e-05</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>5.3412453e-05</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -5755,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>5.3412453e-05</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.8448388e-05</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>3.8448388e-05</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -5976,7 +5976,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>7.3339563e-05</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -5991,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>7.3339563e-05</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.728777e-06</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>4.728777e-06</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.0024913e-05</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -6522,7 +6522,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.0024913e-05</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.000271830978</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -6699,7 +6699,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.000271830978</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -6743,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3.8416369e-05</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -6758,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>3.8416369e-05</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -6908,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.80767e-07</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6923,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.80767e-07</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -7026,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.5523e-08</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.5523e-08</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7085,7 +7085,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.3529e-08</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4.3529e-08</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.3643253e-05</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7159,7 +7159,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.3643253e-05</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.7414e-08</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7336,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.7414e-08</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -7380,7 +7380,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.03786e-07</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7395,7 +7395,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2.03786e-07</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -7439,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3.2e-10</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7454,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>3.2e-10</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -7675,7 +7675,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1.0533e-08</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -7690,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.0533e-08</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7734,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.778288e-05</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -7749,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2.778288e-05</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -7970,7 +7970,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.15e-10</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -7985,7 +7985,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>5.15e-10</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.48e-09</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>2.48e-09</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.000135961443</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -8339,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>0.000135961443</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.2341235e-05</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -8634,7 +8634,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2.2341235e-05</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.000232395956</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -9035,7 +9035,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.000232395956</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.0508848e-05</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -9153,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.0508848e-05</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>5.9694465e-05</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -9271,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>5.9694465e-05</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -9433,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.6974418e-05</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -9448,7 +9448,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.6974418e-05</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.9196449e-05</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -9507,7 +9507,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>3.9196449e-05</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.6533305e-05</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.6533305e-05</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>5.9354672e-05</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9802,7 +9802,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>5.9354672e-05</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9846,7 +9846,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.000145295707</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.000145295707</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9905,7 +9905,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.266991e-05</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9920,7 +9920,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.266991e-05</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9964,7 +9964,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.2319031e-05</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9979,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.2319031e-05</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.8875628e-05</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2.8875628e-05</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.600932e-06</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -10215,7 +10215,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>6.600932e-06</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -10259,7 +10259,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.228656e-05</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -10274,7 +10274,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>3.228656e-05</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10318,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.0424877e-05</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>2.0424877e-05</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -10731,7 +10731,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.2914088e-05</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -10746,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2.2914088e-05</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -11132,7 +11132,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.000104666157</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -11147,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.000104666157</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -11250,7 +11250,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.0508848e-05</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -11265,7 +11265,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.0508848e-05</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -11368,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4.6360013e-05</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -11383,7 +11383,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4.6360013e-05</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.6140617e-05</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -11560,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>2.6140617e-05</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -11604,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.2529166e-05</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -11619,7 +11619,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>3.2529166e-05</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -11722,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.7359971e-05</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -11737,7 +11737,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.7359971e-05</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -11899,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3.6819118e-05</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -11914,7 +11914,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>3.6819118e-05</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -11958,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.000115273703</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -11973,7 +11973,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.000115273703</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.266991e-05</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -12032,7 +12032,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.266991e-05</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -12076,7 +12076,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>9.411990999999999e-06</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>9.411990999999999e-06</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -12135,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.3845839e-05</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -12150,7 +12150,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.3845839e-05</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -12194,7 +12194,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.2321645e-05</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -12209,7 +12209,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.2321645e-05</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -12312,7 +12312,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.211974e-06</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -12327,7 +12327,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>6.211974e-06</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -12371,7 +12371,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.0472708e-05</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -12386,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>3.0472708e-05</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -12430,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.646993e-05</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -12445,7 +12445,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>2.646993e-05</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -12548,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>3.3095344e-05</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>3.3095344e-05</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -12843,7 +12843,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.3676846e-05</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -12858,7 +12858,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.3676846e-05</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -13020,7 +13020,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.7679784e-05</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -13035,7 +13035,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.7679784e-05</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -13244,7 +13244,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.8905124e-05</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -13259,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.8905124e-05</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -13362,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.2243249e-05</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -13377,7 +13377,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.2243249e-05</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -13480,7 +13480,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4.0591645e-05</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -13495,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4.0591645e-05</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -13657,7 +13657,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.1623731e-05</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -13672,7 +13672,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.1623731e-05</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -13716,7 +13716,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.6508475e-05</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -13731,7 +13731,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.6508475e-05</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -13775,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3.864984e-06</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>3.864984e-06</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -13834,7 +13834,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.5751742e-05</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -13849,7 +13849,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.5751742e-05</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -14011,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>4.8239712e-05</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -14026,7 +14026,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>4.8239712e-05</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -14070,7 +14070,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.000135058593</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.000135058593</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -14188,7 +14188,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.45559e-05</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -14203,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.45559e-05</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -14247,7 +14247,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.963211e-05</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -14262,7 +14262,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2.963211e-05</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -14306,7 +14306,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2.190102e-06</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -14321,7 +14321,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.190102e-06</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -14424,7 +14424,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2.2655178e-05</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -14439,7 +14439,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>2.2655178e-05</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -14542,7 +14542,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.027208e-06</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -14557,7 +14557,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1.027208e-06</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -14601,7 +14601,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.007537e-06</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -14616,7 +14616,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.007537e-06</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -15191,7 +15191,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>2.294e-09</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -15206,7 +15206,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2.294e-09</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -19580,7 +19580,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.000148813338</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -19595,7 +19595,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.000148813338</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.4209245e-05</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -19654,7 +19654,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.4209245e-05</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -19698,7 +19698,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.000136547039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -19713,7 +19713,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.000136547039</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -19757,7 +19757,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.0006586e-05</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -19772,7 +19772,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>6.0006586e-05</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -19816,7 +19816,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>8.5012873e-05</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -19831,7 +19831,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>8.5012873e-05</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -19875,7 +19875,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>4.844671e-06</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -19890,7 +19890,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>4.844671e-06</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -19934,7 +19934,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>3.0030198e-05</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -19949,7 +19949,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>3.0030198e-05</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.2918398e-05</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -20008,7 +20008,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>7.2918398e-05</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -20052,7 +20052,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>8.5887408e-05</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -20067,7 +20067,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.5887408e-05</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -20111,7 +20111,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>0.000109611197</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -20126,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>0.000109611197</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -20170,7 +20170,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>8.3968533e-05</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -20185,7 +20185,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>8.3968533e-05</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -20229,7 +20229,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.4186039e-05</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -20244,7 +20244,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.4186039e-05</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -20288,7 +20288,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.000511249076</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -20303,7 +20303,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>0.000511249076</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -20347,7 +20347,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>6.267283600000001e-05</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -20362,7 +20362,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>6.267283600000001e-05</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -20406,7 +20406,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>7.6138156e-05</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -20421,7 +20421,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>7.6138156e-05</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -20524,7 +20524,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.228513e-05</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -20539,7 +20539,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>6.228513e-05</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -20583,7 +20583,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.000140181179</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -20598,7 +20598,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.000140181179</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -20642,7 +20642,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2.3042855e-05</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -20657,7 +20657,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>2.3042855e-05</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -20701,7 +20701,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>5.4456911e-05</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -20716,7 +20716,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>5.4456911e-05</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -20760,7 +20760,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.2752084e-05</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -20775,7 +20775,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>6.2752084e-05</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -20819,7 +20819,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.00010536598</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -20834,7 +20834,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>0.00010536598</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -20878,7 +20878,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>4.4209634e-05</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -20893,7 +20893,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>4.4209634e-05</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -20937,7 +20937,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.0751325e-05</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -20952,7 +20952,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>5.0751325e-05</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -21291,7 +21291,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.5681829e-05</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -21306,7 +21306,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.5681829e-05</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -21468,7 +21468,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.821375e-05</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -21483,7 +21483,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.821375e-05</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -21527,7 +21527,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.00010230836</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -21542,7 +21542,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>0.00010230836</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -21751,7 +21751,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.843963e-06</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -21766,7 +21766,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.843963e-06</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -21810,7 +21810,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.413753e-06</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -21825,7 +21825,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.413753e-06</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -21869,7 +21869,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.324369e-06</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -21884,7 +21884,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4.324369e-06</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -21928,7 +21928,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>9.614415e-06</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -21943,7 +21943,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>9.614415e-06</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -22046,7 +22046,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.79299e-07</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -22061,7 +22061,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2.79299e-07</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -22105,7 +22105,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>5.20806e-06</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -22120,7 +22120,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>5.20806e-06</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -22164,7 +22164,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.317446e-06</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -22179,7 +22179,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>3.317446e-06</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -22223,7 +22223,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4.87152e-07</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -22238,7 +22238,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>4.87152e-07</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -22282,7 +22282,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.1011181e-05</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -22297,7 +22297,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.1011181e-05</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -22459,7 +22459,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>5.113326e-06</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -22474,7 +22474,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>5.113326e-06</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -22518,7 +22518,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.455089e-06</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -22533,7 +22533,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.455089e-06</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -22577,7 +22577,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.7002433e-05</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.7002433e-05</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -22636,7 +22636,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>5.00307e-07</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -22651,7 +22651,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>5.00307e-07</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -22695,7 +22695,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.749097e-06</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -22710,7 +22710,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.749097e-06</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -22754,7 +22754,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.63218e-07</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -22769,7 +22769,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>5.63218e-07</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -22813,7 +22813,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>9.676420000000001e-06</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>9.676420000000001e-06</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>6.529866e-06</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22946,7 +22946,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>6.529866e-06</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -22990,7 +22990,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3.16198e-06</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -23005,7 +23005,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>3.16198e-06</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -23049,7 +23049,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.987616e-06</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -23064,7 +23064,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>2.987616e-06</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -23167,7 +23167,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>2.2394753e-05</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -23182,7 +23182,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>2.2394753e-05</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -23403,7 +23403,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.43213e-07</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.43213e-07</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -23462,7 +23462,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>4.513e-09</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -23477,7 +23477,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>4.513e-09</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -30140,7 +30140,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>7.281603e-05</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -30155,7 +30155,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>7.281603e-05</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -30199,7 +30199,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>4.5389852e-05</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -30214,7 +30214,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.5389852e-05</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -30258,7 +30258,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1.8850044e-05</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.8850044e-05</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -30317,7 +30317,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3.8585e-08</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -30332,7 +30332,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>3.8585e-08</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -30376,7 +30376,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.119869e-05</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -30391,7 +30391,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>3.119869e-05</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -30494,7 +30494,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.932018e-06</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -30509,7 +30509,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>4.932018e-06</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -30553,7 +30553,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>8.95382e-06</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -30568,7 +30568,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>8.95382e-06</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -30612,7 +30612,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.1734377e-05</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -30627,7 +30627,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.1734377e-05</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -30671,7 +30671,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>7.930698e-05</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -30686,7 +30686,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>7.930698e-05</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>5.042311e-06</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -30745,7 +30745,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>5.042311e-06</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -30907,7 +30907,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3.0679957e-05</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -30922,7 +30922,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>3.0679957e-05</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -30966,7 +30966,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.000104766381</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -30981,7 +30981,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.000104766381</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -31025,7 +31025,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>4.533982e-05</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -31040,7 +31040,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>4.533982e-05</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -31084,7 +31084,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>5.3412453e-05</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -31099,7 +31099,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>5.3412453e-05</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -31202,7 +31202,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3.8448388e-05</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -31217,7 +31217,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>3.8448388e-05</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -31320,7 +31320,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>7.3339563e-05</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -31335,7 +31335,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>7.3339563e-05</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -31497,7 +31497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4.728777e-06</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -31512,7 +31512,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>4.728777e-06</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -31851,7 +31851,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.0024913e-05</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -31866,7 +31866,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.0024913e-05</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -32028,7 +32028,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>0.000271830978</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -32043,7 +32043,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>0.000271830978</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -32087,7 +32087,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>3.8416369e-05</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -32102,7 +32102,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>3.8416369e-05</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -32252,7 +32252,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.80767e-07</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -32267,7 +32267,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.80767e-07</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -32370,7 +32370,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4.5523e-08</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -32385,7 +32385,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.5523e-08</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32429,7 +32429,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.3529e-08</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -32444,7 +32444,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>4.3529e-08</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -32488,7 +32488,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1.3643253e-05</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -32503,7 +32503,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.3643253e-05</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -32665,7 +32665,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.7414e-08</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -32680,7 +32680,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.7414e-08</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -32724,7 +32724,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.03786e-07</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -32739,7 +32739,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2.03786e-07</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>3.2e-10</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -32798,7 +32798,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>3.2e-10</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -33019,7 +33019,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1.0533e-08</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -33034,7 +33034,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.0533e-08</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -33078,7 +33078,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.778288e-05</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -33093,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2.778288e-05</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -33314,7 +33314,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>5.15e-10</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -33329,7 +33329,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>5.15e-10</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -33609,7 +33609,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2.48e-09</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -33624,7 +33624,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>2.48e-09</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -33668,7 +33668,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.000135961443</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -33683,7 +33683,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>0.000135961443</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -33963,7 +33963,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.2341235e-05</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -33978,7 +33978,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2.2341235e-05</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -34364,7 +34364,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.000232395956</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34379,7 +34379,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.000232395956</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34482,7 +34482,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.0508848e-05</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34497,7 +34497,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.0508848e-05</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34600,7 +34600,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>5.9694465e-05</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -34615,7 +34615,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>5.9694465e-05</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1.6974418e-05</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -34792,7 +34792,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.6974418e-05</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -34836,7 +34836,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.9196449e-05</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -34851,7 +34851,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>3.9196449e-05</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.6533305e-05</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -34969,7 +34969,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.6533305e-05</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35131,7 +35131,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>5.9354672e-05</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35146,7 +35146,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>5.9354672e-05</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35190,7 +35190,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.000145295707</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35205,7 +35205,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.000145295707</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.266991e-05</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -35264,7 +35264,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.266991e-05</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35308,7 +35308,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.2319031e-05</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35323,7 +35323,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.2319031e-05</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35367,7 +35367,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2.8875628e-05</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -35382,7 +35382,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2.8875628e-05</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -35544,7 +35544,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.600932e-06</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -35559,7 +35559,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>6.600932e-06</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -35603,7 +35603,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.228656e-05</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -35618,7 +35618,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>3.228656e-05</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.0424877e-05</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -35677,7 +35677,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>2.0424877e-05</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36075,7 +36075,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>2.2914088e-05</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36090,7 +36090,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>2.2914088e-05</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -36476,7 +36476,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.000104666157</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -36491,7 +36491,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>0.000104666157</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.0508848e-05</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2.0508848e-05</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -36712,7 +36712,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4.6360013e-05</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -36727,7 +36727,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4.6360013e-05</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -36889,7 +36889,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.6140617e-05</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -36904,7 +36904,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>2.6140617e-05</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -36948,7 +36948,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.2529166e-05</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>3.2529166e-05</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.7359971e-05</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.7359971e-05</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -37243,7 +37243,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3.6819118e-05</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -37258,7 +37258,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>3.6819118e-05</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.000115273703</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -37317,7 +37317,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>0.000115273703</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -37361,7 +37361,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2.266991e-05</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -37376,7 +37376,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>2.266991e-05</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -37420,7 +37420,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>9.411990999999999e-06</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -37435,7 +37435,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>9.411990999999999e-06</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.3845839e-05</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -37494,7 +37494,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.3845839e-05</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -37538,7 +37538,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.2321645e-05</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -37553,7 +37553,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.2321645e-05</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -37656,7 +37656,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.211974e-06</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -37671,7 +37671,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>6.211974e-06</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -37715,7 +37715,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3.0472708e-05</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -37730,7 +37730,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>3.0472708e-05</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.646993e-05</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>2.646993e-05</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -37892,7 +37892,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>3.3095344e-05</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -37907,7 +37907,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>3.3095344e-05</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.3676846e-05</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.3676846e-05</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -38364,7 +38364,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.7679784e-05</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -38379,7 +38379,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.7679784e-05</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
